--- a/results/Comparison.xlsx
+++ b/results/Comparison.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Skin Permeation\Skin-Permeation\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\Skin Permeation\Skin-Permeation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FBBE27-2012-4B7B-B9BB-20966ACB10FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D946DDB1-22A8-4EF1-8B25-F4A72E123CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Base</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Trial 4</t>
+  </si>
+  <si>
+    <t>all features</t>
+  </si>
+  <si>
+    <t>selected features</t>
+  </si>
+  <si>
+    <t>ANN</t>
   </si>
 </sst>
 </file>
@@ -96,15 +105,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:colOff>18675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>79869</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>49512</xdr:rowOff>
+      <xdr:colOff>20104</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -127,8 +136,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9760322" y="907676"/>
-          <a:ext cx="6657723" cy="1999336"/>
+          <a:off x="9820087" y="534146"/>
+          <a:ext cx="6739899" cy="1958248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -141,14 +150,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>67237</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>62959</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>51763</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -171,8 +180,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9749119" y="3110959"/>
-          <a:ext cx="6891616" cy="2465304"/>
+          <a:off x="9868649" y="2961547"/>
+          <a:ext cx="6973792" cy="2416745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -755,15 +764,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:AF4"/>
+  <dimension ref="A4:AF41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T42" sqref="T41:T42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -777,6 +786,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB41">
+        <f ca="1">Q8:AB41</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
